--- a/Excel Projects/XLOOKUP Excel.xlsx
+++ b/Excel Projects/XLOOKUP Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krstf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e52e7eb24d0624ed/Desktop/Data-analysis-with-python-projects/Excel Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17122B7A-73F8-435D-ACFC-E14DFEDCB9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{17122B7A-73F8-435D-ACFC-E14DFEDCB9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782C415E-CF20-4842-89C8-8E3EB182CFAF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,25 @@
     <sheet name="XLookUp w SUM" sheetId="7" r:id="rId6"/>
     <sheet name="VLookUp" sheetId="2" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'XLookUp Horizontal'!$G$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'XLookUp Horizontal'!$G$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'XLookUp Horizontal'!$G$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'XLookUp Horizontal'!$G$3</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'XLookUp Horizontal'!$G$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'XLookUp Horizontal'!$H$1:$S$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'XLookUp Horizontal'!$H$2:$S$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'XLookUp Horizontal'!$H$3:$S$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'XLookUp Horizontal'!$H$4:$S$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'XLookUp Horizontal'!$G$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'XLookUp Horizontal'!$H$1:$S$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'XLookUp Horizontal'!$H$2:$S$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'XLookUp Horizontal'!$H$3:$S$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'XLookUp Horizontal'!$H$4:$S$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'XLookUp Horizontal'!$G$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'XLookUp Horizontal'!$H$1:$S$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'XLookUp Horizontal'!$H$2:$S$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +59,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="93">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -338,13 +357,16 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>Job</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +376,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,15 +406,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,6 +431,3645 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$H$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'XLookUp Horizontal'!$H$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BC3-4298-921D-DED31190CEE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$H$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'XLookUp Horizontal'!$H$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BC3-4298-921D-DED31190CEE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$H$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'XLookUp Horizontal'!$H$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BC3-4298-921D-DED31190CEE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="865929296"/>
+        <c:axId val="865929776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="865929296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865929776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="865929776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865929296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-7A8A-4122-9F48-E814DF37C954}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$H$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'XLookUp Horizontal'!$H$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-7A8A-4122-9F48-E814DF37C954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$H$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'XLookUp Horizontal'!$H$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3510-407A-9FC8-4122CBC69604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$H$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'XLookUp Horizontal'!$H$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3510-407A-9FC8-4122CBC69604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'XLookUp Horizontal'!$H$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'XLookUp Horizontal'!$H$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3510-407A-9FC8-4122CBC69604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1381566704"/>
+        <c:axId val="1381566224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1381566704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381566224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1381566224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381566704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C70C86D-F6C6-41A4-BE4D-8F3BB9D1212F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>567689</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831FFFA4-5708-4F7C-8B72-08B7FC0067CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BC625D-7ABE-4695-A765-F20065B14664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,28 +4372,28 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +4431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -800,7 +4472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -842,12 +4514,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B6" si="0">_xlfn.XLOOKUP(A4,H3:H11,P3:P11)</f>
+        <f>_xlfn.XLOOKUP(A4,H3:H11,P3:P11)</f>
         <v>Pam.Beasley@DunderMifflin.com</v>
       </c>
       <c r="E4">
@@ -884,12 +4556,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.XLOOKUP(A5,H4:H12,P4:P12)</f>
         <v>Meredith.Palmer@Yahoo.com</v>
       </c>
       <c r="E5">
@@ -926,12 +4598,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.XLOOKUP(A6,H5:H13,P5:P13)</f>
         <v>Kevin.Malone@DunderMifflin.com</v>
       </c>
       <c r="E6">
@@ -968,7 +4640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>1006</v>
       </c>
@@ -1003,7 +4675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>1007</v>
       </c>
@@ -1038,7 +4710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>1008</v>
       </c>
@@ -1073,7 +4745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>1009</v>
       </c>
@@ -1108,15 +4780,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="str">
-        <f t="shared" ref="H22:H23" si="1">CONCATENATE(F12," ",G12)</f>
+        <f t="shared" ref="H22:H23" si="0">CONCATENATE(F12," ",G12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1130,20 +4802,20 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +4850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1222,7 +4894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1267,7 +4939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1312,7 +4984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -1357,7 +5029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1402,7 +5074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>1006</v>
       </c>
@@ -1437,7 +5109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>1007</v>
       </c>
@@ -1472,7 +5144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>1008</v>
       </c>
@@ -1507,7 +5179,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>1009</v>
       </c>
@@ -1542,13 +5214,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" t="str">
         <f t="shared" ref="I22:I23" si="0">CONCATENATE(G12," ",H12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1564,27 +5236,27 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +5291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1660,12 +5332,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="str">
-        <f xml:space="preserve"> _xlfn.XLOOKUP(A3&amp;"*",H2:H10,O2:O10,"Not Found",2 )</f>
+        <f xml:space="preserve"> _xlfn.XLOOKUP(A3&amp;"*",H2:H10,O2:O10,"Not Found", 2)</f>
         <v>Toby.Flenderson@DunderMifflinCorporate.com</v>
       </c>
       <c r="E3">
@@ -1702,12 +5374,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B6" si="0" xml:space="preserve"> _xlfn.XLOOKUP("*"&amp;A4,H3:H11,O3:O11,"Not Found",2 )</f>
+        <f xml:space="preserve"> _xlfn.XLOOKUP("*"&amp;A4,H3:H11,O3:O11,"Not Found",2 )</f>
         <v>Pam.Beasley@DunderMifflin.com</v>
       </c>
       <c r="E4">
@@ -1744,7 +5416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1786,7 +5458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1828,7 +5500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>1006</v>
       </c>
@@ -1863,7 +5535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>1007</v>
       </c>
@@ -1898,7 +5570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>1008</v>
       </c>
@@ -1933,7 +5605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>1009</v>
       </c>
@@ -1968,15 +5640,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="str">
-        <f t="shared" ref="H22:H23" si="1">CONCATENATE(F12," ",G12)</f>
+        <f t="shared" ref="H22:H23" si="0">CONCATENATE(F12," ",G12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1990,20 +5662,20 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +5710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -2079,7 +5751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -2121,7 +5793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2163,7 +5835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>1004</v>
       </c>
@@ -2198,7 +5870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1005</v>
       </c>
@@ -2233,7 +5905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>1006</v>
       </c>
@@ -2268,7 +5940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>1007</v>
       </c>
@@ -2303,7 +5975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>1008</v>
       </c>
@@ -2338,7 +6010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>1009</v>
       </c>
@@ -2373,13 +6045,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" t="str">
         <f t="shared" ref="I22:I23" si="0">CONCATENATE(G12," ",H12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2394,30 +6066,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CCAA7F-6F85-4102-B7D4-D80770622F9F}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>73</v>
       </c>
@@ -2458,7 +6127,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2506,12 +6175,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B4" si="0">_xlfn.XLOOKUP(I2,H2:S2,H3:S3)</f>
+        <f xml:space="preserve"> _xlfn.XLOOKUP(I1, H1:S1, H3:S3)</f>
         <v>40</v>
       </c>
       <c r="G3" t="s">
@@ -2554,12 +6223,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> _xlfn.XLOOKUP(I1, H1:S1, H4:S4)</f>
         <v>118</v>
       </c>
       <c r="G4" t="s">
@@ -2604,7 +6273,41 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H2:S2">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:S3">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:S4">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2612,31 +6315,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2549A4-3A41-4806-B7FD-3B9C6823775F}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>73</v>
       </c>
@@ -2680,7 +6383,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2732,16 +6435,16 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B4" si="0">_xlfn.XLOOKUP(I2,H2:S2,H3:S3)</f>
+        <f>_xlfn.XLOOKUP(I2,H2:S2,H3:S3)</f>
         <v>40</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C4" si="1">_xlfn.XLOOKUP(J2,H2:S2,H3:S3)</f>
+        <f>_xlfn.XLOOKUP(J2,H2:S2,H3:S3)</f>
         <v>65</v>
       </c>
       <c r="G3" t="s">
@@ -2784,16 +6487,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>_xlfn.XLOOKUP(I3,H3:S3,H4:S4)</f>
         <v>118</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f>_xlfn.XLOOKUP(J3,H3:S3,H4:S4)</f>
         <v>145</v>
       </c>
       <c r="G4" t="s">
@@ -2836,21 +6539,21 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
       <c r="B8">
-        <f>SUM(_xlfn.XLOOKUP(I1,H1:S1,H2:S2):_xlfn.XLOOKUP(J1,H1:S1,H2:S2))</f>
+        <f xml:space="preserve"> _xlfn.XLOOKUP(I1,H1:S1,H2:S2) + _xlfn.XLOOKUP(J1,H1:S1,H2:S2)</f>
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -2859,7 +6562,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -2878,15 +6581,28 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -2924,12 +6640,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1001</v>
@@ -2961,14 +6677,18 @@
       <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
+      <c r="B3" t="str">
+        <f xml:space="preserve"> VLOOKUP(A3, H2:P10, 5, FALSE)</f>
+        <v>Salesman</v>
+      </c>
       <c r="E3">
         <v>1002</v>
       </c>
@@ -3003,10 +6723,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
+      <c r="B4" t="str">
+        <f xml:space="preserve"> VLOOKUP(A4, H3:P11, 5, FALSE)</f>
+        <v>Regional Manager</v>
+      </c>
       <c r="E4">
         <v>1003</v>
       </c>
@@ -3041,10 +6765,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
+      <c r="B5" t="str">
+        <f xml:space="preserve"> VLOOKUP(A5, H4:P12, 5, FALSE)</f>
+        <v>Salesman</v>
+      </c>
       <c r="E5">
         <v>1004</v>
       </c>
@@ -3079,7 +6807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>1005</v>
       </c>
@@ -3114,7 +6842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>1006</v>
       </c>
@@ -3149,7 +6877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>1007</v>
       </c>
@@ -3184,7 +6912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>1008</v>
       </c>
@@ -3219,7 +6947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>1009</v>
       </c>
@@ -3255,6 +6983,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{481C88F8-B52F-44F9-B336-47CD6029FA65}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>